--- a/data/trans_bre/P16B05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,28%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-10,92; -1,88</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; -0,79</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; -1,88</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; -0,79</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 35,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 13,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 58,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 16,25</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,69; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,69; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 51,49</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 9,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 7,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 11,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 8,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16B05-Estudios-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -1,88</t>
+          <t>-10,38; -1,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -0,79</t>
+          <t>-7,49; -0,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -1,88</t>
+          <t>-10,38; -1,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -0,79</t>
+          <t>-7,49; -0,79</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 35,99</t>
+          <t>-1,7; 36,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,74</t>
+          <t>0,0; 14,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 13,83</t>
+          <t>0,73; 13,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 58,21</t>
+          <t>-1,74; 63,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,04</t>
+          <t>0,0; 16,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 16,25</t>
+          <t>0,71; 15,94</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,52</t>
+          <t>0,0; 36,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 0,0</t>
+          <t>-32,28; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,85</t>
+          <t>0,0; 31,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,96</t>
+          <t>0,0; 57,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 0,0</t>
+          <t>-32,28; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,49</t>
+          <t>0,0; 45,73</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 9,62</t>
+          <t>-4,02; 9,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,62</t>
+          <t>-1,16; 2,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 7,75</t>
+          <t>-0,81; 7,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 11,15</t>
+          <t>-4,08; 11,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,75</t>
+          <t>-1,16; 3,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 8,47</t>
+          <t>-0,81; 8,82</t>
         </is>
       </c>
     </row>
